--- a/public_html/tools/import-preset.xlsx
+++ b/public_html/tools/import-preset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\speed-skate.org\public_html\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5176CE91-A6B0-450C-9599-6E0CFE1A6424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA66BCF-72B7-4411-89B4-9DE8CCF43505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="510" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roller results import" sheetId="2" r:id="rId1"/>
@@ -31,6 +31,429 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Timo Le</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{5CD2823F-B91E-4B9E-A5A2-91D37E83EF0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Distance of race.
+please remove dots / kommas if possible.
+Examples: 500m,
+100m,
+5000m Points
+10000m Elimination</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{278D8456-81BE-48AB-92BE-276B93F4B3F3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Put 1 or 0
+1: race is a relay
+0: race is no relay
+this helps us with some stuff in the database</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9BD0847B-277F-41EF-8D76-E2FD53E7F86C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+m/w
+m: Male
+w: Female</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{9D97BEF9-350D-4F70-A6C9-4830715C43B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+category of race:
+Please use the standart english names if possible. Examples:
+Youth, Junior, Senior, Masters
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{98553384-C30E-4EDF-92F0-7037C7C9E8E4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Optional youtube link if you happen to have them. If there are multiple you can seperate them by ;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A35C5027-4B01-426A-A20D-625403EDF9CD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Value: Track/Road
+Track: track races
+Road: Road circuit</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{BAFF295A-9062-4574-A074-B7CED833DCEE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The Unique id of that skater that will not change. Best would be a license number or similar.
+Start number is fine too but more work for multiple races</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{DA556514-0A70-4713-B5C9-C929ADAECDBE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+First name and second, third name if available</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{80B134F6-55A8-43E2-A810-94A1EC012D40}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Lastname</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{BD3FDAFE-BDA4-4DBC-AA54-9C05E482D82F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Country of residence of the skater
+Use English names.
+Examples:
+Italy, Switzerland, Belgium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{4B03051C-5587-4BC9-96C7-9FB3D2081615}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Skaters club</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{EB3D93C6-6838-43FD-BC79-A18BC3A0808B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Team of skater if existing.
+Examples:
+Powerslide, Bont, Mariani</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{9E29D083-C460-415B-8E5D-B292E351DDF3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+numeric place</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{B6130E49-90D3-48F0-BE4A-19AE97B4673A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If points race put scored points here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{68EBEC70-4E88-4B53-85F5-3E542E7DA32B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Remarks like warnings, dns etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{353317A9-06D8-4A94-ADDC-1EDD52D8B9B9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Time of finish. 
+We use a standarized time format for beeing able to compare times.
+Format: hh:mm:ss.uuu
+h: hours
+m: minutes
+s: seconds
+u: microseconds
+use trailing zeros
+If you cant get this format just leave it empty. Times aren't the main focus anyway :)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
@@ -86,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +523,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -458,11 +907,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04061585-4606-CD4A-98E8-988C4744A1D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04061585-4606-CD4A-98E8-988C4744A1D5}">
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,5 +994,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public_html/tools/import-preset.xlsx
+++ b/public_html/tools/import-preset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\speed-skate.org\public_html\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA66BCF-72B7-4411-89B4-9DE8CCF43505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD49CBE-47DD-4E71-86FB-CB2FEDD3DD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,7 +911,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public_html/tools/import-preset.xlsx
+++ b/public_html/tools/import-preset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\speed-skate.org\public_html\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD49CBE-47DD-4E71-86FB-CB2FEDD3DD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4E2F9B-BEDE-4420-A23A-7F500FBEDF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="510" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roller results import" sheetId="2" r:id="rId1"/>
@@ -490,9 +490,6 @@
     <t>category</t>
   </si>
   <si>
-    <t>athleteID</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
   </si>
   <si>
     <t>trackRoad</t>
+  </si>
+  <si>
+    <t>startNumber</t>
   </si>
 </sst>
 </file>
@@ -911,7 +911,7 @@
   <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,7 +922,7 @@
     <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -980,7 +980,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>3</v>

--- a/public_html/tools/import-preset.xlsx
+++ b/public_html/tools/import-preset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\speed-skate.org\public_html\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4E2F9B-BEDE-4420-A23A-7F500FBEDF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8C0FFF-A97D-453B-BB53-ADF91CB03721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="510" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -450,12 +450,128 @@
         </r>
       </text>
     </comment>
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C9EB137E-1229-416C-A357-C284C90506AC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 | 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{900B5920-D80C-415F-95FE-7BFD569F98F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 | 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{8223659A-F771-4737-B8B5-BCBBDEF758BA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 | 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{AFF9BF0B-A081-4607-96FE-F7802517C6EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1 | 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{682AA199-814F-4E02-BB62-7ED202770807}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Timo Le:
+Examples:
+Quarter final 1
+Quarter final 2
+Final
+Qualification 1
+Qualification 2</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>youtubeLink</t>
   </si>
@@ -503,6 +619,21 @@
   </si>
   <si>
     <t>startNumber</t>
+  </si>
+  <si>
+    <t>falseStart</t>
+  </si>
+  <si>
+    <t>didNotStart</t>
+  </si>
+  <si>
+    <t>round</t>
+  </si>
+  <si>
+    <t>disqualificationTechnical</t>
+  </si>
+  <si>
+    <t>disqualificationSportsFault</t>
   </si>
 </sst>
 </file>
@@ -908,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04061585-4606-CD4A-98E8-988C4744A1D5}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,17 +1063,18 @@
     <col min="14" max="14" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,6 +1122,21 @@
       </c>
       <c r="P1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public_html/tools/import-preset.xlsx
+++ b/public_html/tools/import-preset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\speed-skate.org\public_html\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8C0FFF-A97D-453B-BB53-ADF91CB03721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15E0C22-F89D-4022-BC25-440DB5742852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="510" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roller results import" sheetId="2" r:id="rId1"/>
@@ -241,7 +241,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-First name and second, third name if available</t>
+First name and second, third name if available.
+Or fill in fullName</t>
         </r>
       </text>
     </comment>
@@ -265,11 +266,37 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Lastname</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{BD3FDAFE-BDA4-4DBC-AA54-9C05E482D82F}">
+Lastname
+Or fill in fullName</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{083936B8-4722-4E3F-8EA7-7425742F3191}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+First name and alst name combined. If given, first and lastname will be ignored.
+An algorithm will seperate first and last name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{BD3FDAFE-BDA4-4DBC-AA54-9C05E482D82F}">
       <text>
         <r>
           <rPr>
@@ -296,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{4B03051C-5587-4BC9-96C7-9FB3D2081615}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{4B03051C-5587-4BC9-96C7-9FB3D2081615}">
       <text>
         <r>
           <rPr>
@@ -320,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{EB3D93C6-6838-43FD-BC79-A18BC3A0808B}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{EB3D93C6-6838-43FD-BC79-A18BC3A0808B}">
       <text>
         <r>
           <rPr>
@@ -346,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{9E29D083-C460-415B-8E5D-B292E351DDF3}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{9E29D083-C460-415B-8E5D-B292E351DDF3}">
       <text>
         <r>
           <rPr>
@@ -370,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{B6130E49-90D3-48F0-BE4A-19AE97B4673A}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{B6130E49-90D3-48F0-BE4A-19AE97B4673A}">
       <text>
         <r>
           <rPr>
@@ -394,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{68EBEC70-4E88-4B53-85F5-3E542E7DA32B}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{68EBEC70-4E88-4B53-85F5-3E542E7DA32B}">
       <text>
         <r>
           <rPr>
@@ -418,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{353317A9-06D8-4A94-ADDC-1EDD52D8B9B9}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{353317A9-06D8-4A94-ADDC-1EDD52D8B9B9}">
       <text>
         <r>
           <rPr>
@@ -450,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{C9EB137E-1229-416C-A357-C284C90506AC}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{C9EB137E-1229-416C-A357-C284C90506AC}">
       <text>
         <r>
           <rPr>
@@ -474,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{900B5920-D80C-415F-95FE-7BFD569F98F2}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{900B5920-D80C-415F-95FE-7BFD569F98F2}">
       <text>
         <r>
           <rPr>
@@ -498,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{8223659A-F771-4737-B8B5-BCBBDEF758BA}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{8223659A-F771-4737-B8B5-BCBBDEF758BA}">
       <text>
         <r>
           <rPr>
@@ -522,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{AFF9BF0B-A081-4607-96FE-F7802517C6EB}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{AFF9BF0B-A081-4607-96FE-F7802517C6EB}">
       <text>
         <r>
           <rPr>
@@ -546,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{682AA199-814F-4E02-BB62-7ED202770807}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{682AA199-814F-4E02-BB62-7ED202770807}">
       <text>
         <r>
           <rPr>
@@ -571,7 +598,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>youtubeLink</t>
   </si>
@@ -634,6 +661,9 @@
   </si>
   <si>
     <t>disqualificationSportsFault</t>
+  </si>
+  <si>
+    <t>fullName</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04061585-4606-CD4A-98E8-988C4744A1D5}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,25 +1086,25 @@
     <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1103,39 +1133,42 @@
         <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/public_html/tools/import-preset.xlsx
+++ b/public_html/tools/import-preset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\speed-skate.org\public_html\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15E0C22-F89D-4022-BC25-440DB5742852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E1E86-4AEB-4D00-B75E-85E7F366CE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,16 +45,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Timo Le:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Distance of race.
@@ -74,16 +74,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Timo Le:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Put 1 or 0
@@ -101,16 +101,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Timo Le:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 m/w
@@ -127,16 +127,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Timo Le:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 category of race:
@@ -581,7 +581,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Timo Le:
 Examples:
@@ -670,7 +670,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,19 +684,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1072,7 +1059,7 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public_html/tools/import-preset.xlsx
+++ b/public_html/tools/import-preset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\speed-skate.org\public_html\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\phpMyAdmin\htdocs\roller-results.com\public_html\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E1E86-4AEB-4D00-B75E-85E7F366CE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E62D72-001B-424A-8C71-3FC330D1E916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roller results import" sheetId="2" r:id="rId1"/>
@@ -87,6 +87,7 @@
           </rPr>
           <t xml:space="preserve">
 Put 1 or 0
+Default: 0
 1: race is a relay
 0: race is no relay
 this helps us with some stuff in the database</t>
@@ -114,6 +115,7 @@
           </rPr>
           <t xml:space="preserve">
 m/w
+Required
 m: Male
 w: Female</t>
         </r>
@@ -139,7 +141,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-category of race:
+category of race
+required
 Please use the standart english names if possible. Examples:
 Youth, Junior, Senior, Masters
 </t>
@@ -166,6 +169,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+Not required
 Optional youtube link if you happen to have them. If there are multiple you can seperate them by ;</t>
         </r>
       </text>
@@ -191,6 +195,7 @@
           </rPr>
           <t xml:space="preserve">
 Value: Track/Road
+required
 Track: track races
 Road: Road circuit</t>
         </r>
@@ -216,8 +221,10 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-The Unique id of that skater that will not change. Best would be a license number or similar.
-Start number is fine too but more work for multiple races</t>
+Start number of racer
+required
+This string will be used to link multiple results to the same athlete.
+Also this will be stored in your alias so the next time you upload results the system will recognize this skater only by his number.</t>
         </r>
       </text>
     </comment>
@@ -241,8 +248,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-First name and second, third name if available.
-Or fill in fullName</t>
+required if fullName name is not given
+First name and second, third name if available</t>
         </r>
       </text>
     </comment>
@@ -267,7 +274,7 @@
           </rPr>
           <t xml:space="preserve">
 Lastname
-Or fill in fullName</t>
+required if fullName is not given</t>
         </r>
       </text>
     </comment>
@@ -316,6 +323,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+Recomended
 Country of residence of the skater
 Use English names.
 Examples:
@@ -343,7 +351,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Skaters club</t>
+Skaters club
+Optional</t>
         </r>
       </text>
     </comment>
@@ -367,6 +376,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+Optional
 Team of skater if existing.
 Examples:
 Powerslide, Bont, Mariani</t>
@@ -393,7 +403,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-numeric place</t>
+numeric place
+Required</t>
         </r>
       </text>
     </comment>
@@ -417,7 +428,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-If points race put scored points here</t>
+If points race put scored points here
+Optional</t>
         </r>
       </text>
     </comment>
@@ -441,7 +453,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Remarks like warnings, dns etc.</t>
+Remarks like warnings, dns etc.
+Optional</t>
         </r>
       </text>
     </comment>
@@ -465,15 +478,20 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Time of finish. 
-We use a standarized time format for beeing able to compare times.
-Format: hh:mm:ss.uuu
+Time of finish.
+Optional
+Available formats:
+hh:mm:ss.uuu
+mm:ss.uuu
+ss.uuu
+hh:mm:ss,uuu
+mm:ss,uuu
+ss,uuu
+hh:mm
 h: hours
 m: minutes
 s: seconds
-u: microseconds
-use trailing zeros
-If you cant get this format just leave it empty. Times aren't the main focus anyway :)</t>
+u: microseconds</t>
         </r>
       </text>
     </comment>
@@ -497,7 +515,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1 | 0</t>
+1 | 0
+Optional
+Default 0</t>
         </r>
       </text>
     </comment>
@@ -521,7 +541,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1 | 0</t>
+1 | 0
+Optional
+Default 0</t>
         </r>
       </text>
     </comment>
@@ -545,7 +567,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1 | 0</t>
+1 | 0
+Optional
+Default 0</t>
         </r>
       </text>
     </comment>
@@ -569,7 +593,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-1 | 0</t>
+1 | 0
+Optional
+Default 0</t>
         </r>
       </text>
     </comment>
@@ -584,6 +610,7 @@
             <family val="2"/>
           </rPr>
           <t>Timo Le:
+Optional
 Examples:
 Quarter final 1
 Quarter final 2
@@ -1058,40 +1085,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04061585-4606-CD4A-98E8-988C4744A1D5}">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>

--- a/public_html/tools/import-preset.xlsx
+++ b/public_html/tools/import-preset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\phpMyAdmin\htdocs\roller-results.com\public_html\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\speed-skate.org\public_html\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E62D72-001B-424A-8C71-3FC330D1E916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7E8598-EA4D-4B48-958A-EEB539EE9294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roller results import" sheetId="2" r:id="rId1"/>
@@ -325,9 +325,8 @@
           <t xml:space="preserve">
 Recomended
 Country of residence of the skater
-Use English names.
-Examples:
-Italy, Switzerland, Belgium</t>
+formats:
+"alpha-2", "alpha-3", "country-code", "iso_3166-2", "name"</t>
         </r>
       </text>
     </comment>
@@ -1086,39 +1085,39 @@
   <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>

--- a/public_html/tools/import-preset.xlsx
+++ b/public_html/tools/import-preset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\speed-skate.org\public_html\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7E8598-EA4D-4B48-958A-EEB539EE9294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A616C681-F222-4605-B90C-396E37B7852F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -619,12 +619,61 @@
         </r>
       </text>
     </comment>
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{0BDB0296-A1B8-455E-9C50-EEF182B1611F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+int
+Laps that skater skated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{96EF3573-2553-4B9D-A9CC-CD11ABA746A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Timo Le:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DRIV license</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>youtubeLink</t>
   </si>
@@ -690,6 +739,12 @@
   </si>
   <si>
     <t>fullName</t>
+  </si>
+  <si>
+    <t>laps</t>
+  </si>
+  <si>
+    <t>DRIVlicence</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04061585-4606-CD4A-98E8-988C4744A1D5}">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,12 +1167,12 @@
     <col min="20" max="20" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1183,6 +1238,12 @@
       </c>
       <c r="V1" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/public_html/tools/import-preset.xlsx
+++ b/public_html/tools/import-preset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\speed-skate.org\public_html\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A616C681-F222-4605-B90C-396E37B7852F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6199874E-F806-5F42-90D1-476F51FA2142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Roller results import" sheetId="2" r:id="rId1"/>
@@ -825,7 +825,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,7 +841,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1140,39 +1140,40 @@
   <dimension ref="A1:X1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
